--- a/input/About_data.xlsx
+++ b/input/About_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/takuto/Desktop/Credit_Comp/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE4C914E-62C1-9B44-8537-4AF5BB7B78F9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B57DD872-C850-2243-893A-34B8DF4760EE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="24700" windowHeight="16240" xr2:uid="{2E7745DE-49C9-0647-A133-0399E404AA1E}"/>
   </bookViews>
@@ -190,246 +190,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>2005年9月の支払い金額 (-2: 支払いなし, -1:正当な支払い, 0:リボ払い, 1: 支払い遅延1ヶ月間, 2:支払い遅延2ヶ月間)</t>
-    <rPh sb="4" eb="5">
-      <t xml:space="preserve">ネン </t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t xml:space="preserve">ガツ </t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t xml:space="preserve">シハライ </t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t xml:space="preserve">キンガク </t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t xml:space="preserve">シハライナシ </t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t xml:space="preserve">セイトウナ </t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t xml:space="preserve">シハライ </t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t xml:space="preserve">シハライ </t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t xml:space="preserve">チエン </t>
-    </rPh>
-    <rPh sb="56" eb="57">
-      <t xml:space="preserve">カン </t>
-    </rPh>
-    <rPh sb="61" eb="63">
-      <t xml:space="preserve">シハライ </t>
-    </rPh>
-    <rPh sb="64" eb="66">
-      <t xml:space="preserve">チエン </t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>2005年8月の支払い金額 (-2: 支払いなし, -1:正当な支払い, 0:リボ払い, 1: 支払い遅延1ヶ月間, 2:支払い遅延2ヶ月間)</t>
-    <rPh sb="4" eb="5">
-      <t xml:space="preserve">ネン </t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t xml:space="preserve">ガツ </t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t xml:space="preserve">シハライ </t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t xml:space="preserve">キンガク </t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t xml:space="preserve">シハライナシ </t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t xml:space="preserve">セイトウナ </t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t xml:space="preserve">シハライ </t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t xml:space="preserve">シハライ </t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t xml:space="preserve">チエン </t>
-    </rPh>
-    <rPh sb="56" eb="57">
-      <t xml:space="preserve">カン </t>
-    </rPh>
-    <rPh sb="61" eb="63">
-      <t xml:space="preserve">シハライ </t>
-    </rPh>
-    <rPh sb="64" eb="66">
-      <t xml:space="preserve">チエン </t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>2005年7月の支払い金額 (-2: 支払いなし, -1:正当な支払い, 0:リボ払い, 1: 支払い遅延1ヶ月間, 2:支払い遅延2ヶ月間)</t>
-    <rPh sb="4" eb="5">
-      <t xml:space="preserve">ネン </t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t xml:space="preserve">ガツ </t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t xml:space="preserve">シハライ </t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t xml:space="preserve">キンガク </t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t xml:space="preserve">シハライナシ </t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t xml:space="preserve">セイトウナ </t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t xml:space="preserve">シハライ </t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t xml:space="preserve">シハライ </t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t xml:space="preserve">チエン </t>
-    </rPh>
-    <rPh sb="56" eb="57">
-      <t xml:space="preserve">カン </t>
-    </rPh>
-    <rPh sb="61" eb="63">
-      <t xml:space="preserve">シハライ </t>
-    </rPh>
-    <rPh sb="64" eb="66">
-      <t xml:space="preserve">チエン </t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>2005年6月の支払い金額 (-2: 支払いなし, -1:正当な支払い, 0:リボ払い, 1: 支払い遅延1ヶ月間, 2:支払い遅延2ヶ月間)</t>
-    <rPh sb="4" eb="5">
-      <t xml:space="preserve">ネン </t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t xml:space="preserve">ガツ </t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t xml:space="preserve">シハライ </t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t xml:space="preserve">キンガク </t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t xml:space="preserve">シハライナシ </t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t xml:space="preserve">セイトウナ </t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t xml:space="preserve">シハライ </t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t xml:space="preserve">シハライ </t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t xml:space="preserve">チエン </t>
-    </rPh>
-    <rPh sb="56" eb="57">
-      <t xml:space="preserve">カン </t>
-    </rPh>
-    <rPh sb="61" eb="63">
-      <t xml:space="preserve">シハライ </t>
-    </rPh>
-    <rPh sb="64" eb="66">
-      <t xml:space="preserve">チエン </t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>2005年5月の支払い金額 (-2: 支払いなし, -1:正当な支払い, 0:リボ払い, 1: 支払い遅延1ヶ月間, 2:支払い遅延2ヶ月間)</t>
-    <rPh sb="4" eb="5">
-      <t xml:space="preserve">ネン </t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t xml:space="preserve">ガツ </t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t xml:space="preserve">シハライ </t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t xml:space="preserve">キンガク </t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t xml:space="preserve">シハライナシ </t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t xml:space="preserve">セイトウナ </t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t xml:space="preserve">シハライ </t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t xml:space="preserve">シハライ </t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t xml:space="preserve">チエン </t>
-    </rPh>
-    <rPh sb="56" eb="57">
-      <t xml:space="preserve">カン </t>
-    </rPh>
-    <rPh sb="61" eb="63">
-      <t xml:space="preserve">シハライ </t>
-    </rPh>
-    <rPh sb="64" eb="66">
-      <t xml:space="preserve">チエン </t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>2005年4月の支払い金額 (-2: 支払いなし, -1:正当な支払い, 0:リボ払い, 1: 支払い遅延1ヶ月間, 2:支払い遅延2ヶ月間)</t>
-    <rPh sb="4" eb="5">
-      <t xml:space="preserve">ネン </t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t xml:space="preserve">ガツ </t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t xml:space="preserve">シハライ </t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t xml:space="preserve">キンガク </t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t xml:space="preserve">シハライナシ </t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t xml:space="preserve">セイトウナ </t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t xml:space="preserve">シハライ </t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t xml:space="preserve">シハライ </t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t xml:space="preserve">チエン </t>
-    </rPh>
-    <rPh sb="56" eb="57">
-      <t xml:space="preserve">カン </t>
-    </rPh>
-    <rPh sb="61" eb="63">
-      <t xml:space="preserve">シハライ </t>
-    </rPh>
-    <rPh sb="64" eb="66">
-      <t xml:space="preserve">チエン </t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>2005年9月の請求書明細書</t>
     <rPh sb="4" eb="5">
       <t xml:space="preserve">ネン </t>
@@ -618,6 +378,246 @@
     <t>婚姻状況（1=既婚, 2=単身, 3=離婚, 0=その他）</t>
     <rPh sb="19" eb="21">
       <t xml:space="preserve">リコン </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2005年9月の支払い記録 (-2: 支払いなし, -1:正当な支払い, 0:リボ払い, 1: 支払い遅延1ヶ月間, 2:支払い遅延2ヶ月間)</t>
+    <rPh sb="4" eb="5">
+      <t xml:space="preserve">ネン </t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t xml:space="preserve">ガツ </t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t xml:space="preserve">シハライ </t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t xml:space="preserve">キロク </t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t xml:space="preserve">シハライナシ </t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t xml:space="preserve">セイトウナ </t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t xml:space="preserve">シハライ </t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t xml:space="preserve">シハライ </t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t xml:space="preserve">チエン </t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t xml:space="preserve">カン </t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t xml:space="preserve">シハライ </t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t xml:space="preserve">チエン </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2005年8月の支払い記録 (-2: 支払いなし, -1:正当な支払い, 0:リボ払い, 1: 支払い遅延1ヶ月間, 2:支払い遅延2ヶ月間)</t>
+    <rPh sb="4" eb="5">
+      <t xml:space="preserve">ネン </t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t xml:space="preserve">ガツ </t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t xml:space="preserve">シハライ </t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t xml:space="preserve">キロク </t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t xml:space="preserve">シハライナシ </t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t xml:space="preserve">セイトウナ </t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t xml:space="preserve">シハライ </t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t xml:space="preserve">シハライ </t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t xml:space="preserve">チエン </t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t xml:space="preserve">カン </t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t xml:space="preserve">シハライ </t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t xml:space="preserve">チエン </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2005年7月の支払い記録 (-2: 支払いなし, -1:正当な支払い, 0:リボ払い, 1: 支払い遅延1ヶ月間, 2:支払い遅延2ヶ月間)</t>
+    <rPh sb="4" eb="5">
+      <t xml:space="preserve">ネン </t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t xml:space="preserve">ガツ </t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t xml:space="preserve">シハライ </t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t xml:space="preserve">キロク </t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t xml:space="preserve">シハライナシ </t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t xml:space="preserve">セイトウナ </t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t xml:space="preserve">シハライ </t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t xml:space="preserve">シハライ </t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t xml:space="preserve">チエン </t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t xml:space="preserve">カン </t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t xml:space="preserve">シハライ </t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t xml:space="preserve">チエン </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2005年6月の支払い記録 (-2: 支払いなし, -1:正当な支払い, 0:リボ払い, 1: 支払い遅延1ヶ月間, 2:支払い遅延2ヶ月間)</t>
+    <rPh sb="4" eb="5">
+      <t xml:space="preserve">ネン </t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t xml:space="preserve">ガツ </t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t xml:space="preserve">シハライ </t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t xml:space="preserve">キロク </t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t xml:space="preserve">シハライナシ </t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t xml:space="preserve">セイトウナ </t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t xml:space="preserve">シハライ </t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t xml:space="preserve">シハライ </t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t xml:space="preserve">チエン </t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t xml:space="preserve">カン </t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t xml:space="preserve">シハライ </t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t xml:space="preserve">チエン </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2005年5月の支払い記録 (-2: 支払いなし, -1:正当な支払い, 0:リボ払い, 1: 支払い遅延1ヶ月間, 2:支払い遅延2ヶ月間)</t>
+    <rPh sb="4" eb="5">
+      <t xml:space="preserve">ネン </t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t xml:space="preserve">ガツ </t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t xml:space="preserve">シハライ </t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t xml:space="preserve">キロク </t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t xml:space="preserve">シハライナシ </t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t xml:space="preserve">セイトウナ </t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t xml:space="preserve">シハライ </t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t xml:space="preserve">シハライ </t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t xml:space="preserve">チエン </t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t xml:space="preserve">カン </t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t xml:space="preserve">シハライ </t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t xml:space="preserve">チエン </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2005年4月の支払い記録 (-2: 支払いなし, -1:正当な支払い, 0:リボ払い, 1: 支払い遅延1ヶ月間, 2:支払い遅延2ヶ月間)</t>
+    <rPh sb="4" eb="5">
+      <t xml:space="preserve">ネン </t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t xml:space="preserve">ガツ </t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t xml:space="preserve">シハライ </t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t xml:space="preserve">キロク </t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t xml:space="preserve">シハライナシ </t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t xml:space="preserve">セイトウナ </t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t xml:space="preserve">シハライ </t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t xml:space="preserve">シハライ </t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t xml:space="preserve">チエン </t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t xml:space="preserve">カン </t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t xml:space="preserve">シハライ </t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t xml:space="preserve">チエン </t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1005,7 +1005,7 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1076,7 +1076,7 @@
         <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>17</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>18</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
@@ -1142,7 +1142,7 @@
         <v>20</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>21</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>22</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
@@ -1175,7 +1175,7 @@
         <v>23</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>24</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>25</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="I15" s="1">
         <v>0</v>
@@ -1208,7 +1208,7 @@
         <v>26</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="I16" s="1">
         <v>0</v>
@@ -1219,7 +1219,7 @@
         <v>27</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="I17" s="1">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>28</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="I18" s="1">
         <v>0</v>
@@ -1241,7 +1241,7 @@
         <v>29</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="I19" s="1">
         <v>0</v>
@@ -1252,7 +1252,7 @@
         <v>30</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="I20" s="1">
         <v>0</v>
@@ -1263,7 +1263,7 @@
         <v>31</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="I21" s="1">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>32</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="I22" s="1">
         <v>0</v>
@@ -1285,7 +1285,7 @@
         <v>33</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="I23" s="1">
         <v>0</v>
@@ -1296,7 +1296,7 @@
         <v>34</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="I24" s="1">
         <v>0</v>
@@ -1307,7 +1307,7 @@
         <v>35</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="I25" s="1">
         <v>0</v>
@@ -1318,7 +1318,7 @@
         <v>36</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="I26" s="1">
         <v>0</v>
@@ -1329,7 +1329,7 @@
         <v>37</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="I27" s="1">
         <v>0</v>

--- a/input/About_data.xlsx
+++ b/input/About_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/takuto/Desktop/Credit_Comp/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B57DD872-C850-2243-893A-34B8DF4760EE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D70B36EB-654E-224F-B6E3-104C75B0DBD3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="24700" windowHeight="16240" xr2:uid="{2E7745DE-49C9-0647-A133-0399E404AA1E}"/>
   </bookViews>
@@ -1005,7 +1005,7 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>

--- a/input/About_data.xlsx
+++ b/input/About_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/takuto/Desktop/Credit_Comp/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D70B36EB-654E-224F-B6E3-104C75B0DBD3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCAC740A-53B3-0E4A-9CE9-A77BC83E1E21}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="24700" windowHeight="16240" xr2:uid="{2E7745DE-49C9-0647-A133-0399E404AA1E}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="68">
   <si>
     <t>テーブル名</t>
   </si>
@@ -152,22 +152,6 @@
   </si>
   <si>
     <t>y</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>target value (0: 支払い履行, 1: 支払い不履行)</t>
-    <rPh sb="17" eb="19">
-      <t xml:space="preserve">シハライ </t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t xml:space="preserve">フリコウ </t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t xml:space="preserve">シハライ </t>
-    </rPh>
-    <rPh sb="30" eb="33">
-      <t xml:space="preserve">フリコウ </t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -619,6 +603,34 @@
     <rPh sb="64" eb="66">
       <t xml:space="preserve">チエン </t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>target value (0: 支払い履行, 1: 支払い不履行), 1が重要?</t>
+    <rPh sb="17" eb="19">
+      <t xml:space="preserve">シハライ </t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t xml:space="preserve">フリコウ </t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t xml:space="preserve">シハライ </t>
+    </rPh>
+    <rPh sb="30" eb="33">
+      <t xml:space="preserve">フリコウ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>category</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>boolean</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1004,8 +1016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCC174D4-FE7B-0D45-87E5-02DBD74A390C}">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="C8" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1050,7 +1062,7 @@
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>7</v>
@@ -1076,7 +1088,13 @@
         <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
+      </c>
+      <c r="F4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1000000</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
@@ -1086,8 +1104,11 @@
       <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="C5" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="D5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
@@ -1097,8 +1118,11 @@
       <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="C6" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="D6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
@@ -1108,8 +1132,11 @@
       <c r="B7" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="C7" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="D7" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
@@ -1119,8 +1146,11 @@
       <c r="B8" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="C8" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="D8" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
@@ -1130,8 +1160,11 @@
       <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="C9" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="D9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
@@ -1141,8 +1174,11 @@
       <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="C10" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="D10" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
@@ -1152,8 +1188,11 @@
       <c r="B11" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="C11" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="D11" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
@@ -1163,8 +1202,11 @@
       <c r="B12" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="C12" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="D12" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
@@ -1174,8 +1216,11 @@
       <c r="B13" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="C13" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="D13" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
@@ -1185,8 +1230,11 @@
       <c r="B14" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="C14" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="D14" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
@@ -1196,8 +1244,11 @@
       <c r="B15" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="C15" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="D15" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I15" s="1">
         <v>0</v>
@@ -1207,8 +1258,17 @@
       <c r="B16" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="C16" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="D16" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="F16" s="1">
+        <v>-165580</v>
+      </c>
+      <c r="G16" s="1">
+        <v>964511</v>
       </c>
       <c r="I16" s="1">
         <v>0</v>
@@ -1218,8 +1278,11 @@
       <c r="B17" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="C17" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="D17" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I17" s="1">
         <v>0</v>
@@ -1229,8 +1292,11 @@
       <c r="B18" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="C18" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="D18" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I18" s="1">
         <v>0</v>
@@ -1240,8 +1306,11 @@
       <c r="B19" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="C19" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="D19" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I19" s="1">
         <v>0</v>
@@ -1251,8 +1320,11 @@
       <c r="B20" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="C20" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="D20" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I20" s="1">
         <v>0</v>
@@ -1262,8 +1334,11 @@
       <c r="B21" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="C21" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="D21" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I21" s="1">
         <v>0</v>
@@ -1273,8 +1348,17 @@
       <c r="B22" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="C22" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="D22" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1">
+        <v>873552</v>
       </c>
       <c r="I22" s="1">
         <v>0</v>
@@ -1284,8 +1368,11 @@
       <c r="B23" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="C23" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="D23" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I23" s="1">
         <v>0</v>
@@ -1295,8 +1382,11 @@
       <c r="B24" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="C24" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="D24" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I24" s="1">
         <v>0</v>
@@ -1306,8 +1396,11 @@
       <c r="B25" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="C25" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="D25" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I25" s="1">
         <v>0</v>
@@ -1317,8 +1410,11 @@
       <c r="B26" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="C26" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="D26" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I26" s="1">
         <v>0</v>
@@ -1328,8 +1424,11 @@
       <c r="B27" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="C27" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="D27" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I27" s="1">
         <v>0</v>
@@ -1339,8 +1438,17 @@
       <c r="B28" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="C28" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="D28" s="1" t="s">
-        <v>39</v>
+        <v>64</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1</v>
       </c>
       <c r="I28" s="1">
         <v>0</v>
